--- a/recipeCreationCMode.xlsx
+++ b/recipeCreationCMode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lattice\Desktop\ss\RecipeCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB97D2D3-38F3-4DB9-961C-5ACD8EFA46D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59912A90-3F71-4078-A582-FE4C5A1C2D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1452,11 +1452,8 @@
       <c r="A6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -1465,15 +1462,18 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
+        <v>1.2</v>
+      </c>
+      <c r="B7">
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" t="s">
@@ -1482,39 +1482,39 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="E7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>1.2</v>
-      </c>
-      <c r="B8">
-        <v>1.1000000000000001</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -3575,7 +3575,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5836,7 +5836,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8097,7 +8097,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10358,7 +10358,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12619,7 +12619,7 @@
   <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C21"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14881,7 +14881,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C59"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17142,7 +17142,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19403,7 +19403,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C21"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21664,7 +21664,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23925,7 +23925,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26186,7 +26186,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C21"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/recipeCreationCMode.xlsx
+++ b/recipeCreationCMode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lattice\Desktop\ss\RecipeCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59912A90-3F71-4078-A582-FE4C5A1C2D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370878A-80BE-4BF1-B61B-0FF879E13283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="753" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModeCF0" sheetId="8" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1396,7 +1396,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -3574,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353F7C62-A3A7-4A3F-974E-A86CAAC2D3EE}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3682,7 +3682,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -3706,7 +3706,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -5835,8 +5835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C0E1E2-8E33-4C28-A453-E37AE7274800}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5943,7 +5943,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -5967,7 +5967,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -8096,8 +8096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADB2F39-DB82-4262-9F4E-B007120C3A27}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8204,7 +8204,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -8228,7 +8228,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -10357,8 +10357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C0519B-248C-4784-B897-A264112D9591}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10465,7 +10465,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -10489,7 +10489,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -12618,8 +12618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC32AE66-08C9-4B02-8286-CAADD498358D}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12726,7 +12726,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -12750,7 +12750,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -14880,8 +14880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72D330A-C15D-4736-9D57-120BD7CA4F73}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14988,7 +14988,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -15012,7 +15012,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -17141,8 +17141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76415543-006F-4B46-BC42-8FFA82CC8F3B}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17249,7 +17249,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -17273,7 +17273,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -19402,8 +19402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8BB3A3-EDA0-4D0A-BAA2-47141E6EFECD}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19510,7 +19510,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -19534,7 +19534,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -21663,8 +21663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E855714-9B39-4CC2-A9F7-DB85BBFA9633}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21771,7 +21771,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -21795,7 +21795,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -23924,8 +23924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD4E8FB-4DF7-49D6-B392-65100978FC5F}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24032,7 +24032,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -24056,7 +24056,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -26185,8 +26185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B96B47C-7483-4D41-904F-18015E95C5A0}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26293,7 +26293,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -26317,7 +26317,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
     </row>

--- a/recipeCreationCMode.xlsx
+++ b/recipeCreationCMode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lattice\Desktop\ss\RecipeCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370878A-80BE-4BF1-B61B-0FF879E13283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5C68CD-6DA8-43A9-910F-2F67A2655738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="753" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3075" windowWidth="15390" windowHeight="9532" tabRatio="753" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModeCF0" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5904" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5904" uniqueCount="250">
   <si>
     <t>UC_ID</t>
   </si>
@@ -787,6 +787,12 @@
   <si>
     <t>Click on UV endpoint</t>
   </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
 </sst>
 </file>
 
@@ -1312,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06968273-B5FF-4DDF-9616-03EB7EEDE40B}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1396,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -1414,7 +1420,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1437,8 +1443,8 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>151</v>
+      <c r="E5" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1452,8 +1458,11 @@
       <c r="A6">
         <v>1.1000000000000001</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -1462,18 +1471,15 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>1.2</v>
-      </c>
-      <c r="B7">
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" t="s">
@@ -1482,39 +1488,39 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>1.2</v>
+      </c>
+      <c r="B8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7"/>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -3565,6 +3571,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" location="/trial/recipe-list" xr:uid="{F24D30FB-C146-4397-A929-7CFC1287DB8E}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{0CEEE570-632D-4203-B539-63103F28FAE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3575,7 +3582,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3682,7 +3689,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -3706,7 +3713,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -5836,7 +5843,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5943,7 +5950,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -5967,7 +5974,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -8097,7 +8104,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8204,7 +8211,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -8228,7 +8235,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -10358,7 +10365,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10465,7 +10472,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -10489,7 +10496,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -12619,7 +12626,7 @@
   <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12726,7 +12733,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -12750,7 +12757,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -14881,7 +14888,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14988,7 +14995,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -15012,7 +15019,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -15056,7 +15063,7 @@
       <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="7"/>
@@ -17142,7 +17149,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17249,7 +17256,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -17273,7 +17280,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -17317,7 +17324,7 @@
       <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="7"/>
@@ -19403,7 +19410,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19510,7 +19517,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -19534,7 +19541,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -21664,7 +21671,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21771,7 +21778,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -21795,7 +21802,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -23925,7 +23932,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24032,7 +24039,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -24056,7 +24063,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -26186,7 +26193,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26293,7 +26300,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -26317,7 +26324,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
